--- a/data/turm/MEC-2B/MEC-2B_(2)bimestre.xlsx
+++ b/data/turm/MEC-2B/MEC-2B_(2)bimestre.xlsx
@@ -473,27 +473,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Carlos-Tornearia_(2)bimestre</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>Vinicius-Des. Maq. Cad.</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Vinicius-Des. Maq. Cad.</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Maria Celeste-Maq. Term. FLuxo</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Nilton-Mec. Tec. Res. Mat</t>
         </is>
       </c>
     </row>
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Carlos-Tornearia_(2)bimestre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,17 +515,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Vinicius-Des. Maq. Cad.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Maria Celeste-Maq. Term. FLuxo</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Nilton-Mec. Tec. Res. Mat</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Carlos-Tornearia_(2)bimestre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,12 +547,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Elaine-Metalografia_(2)bimestre</t>
+          <t>Maria Celeste-Maq. Term. FLuxo</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Nilton-Mec. Tec. Res. Mat</t>
+          <t>0_(2)bimestre</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Vinicius-Des. Maq. Cad.</t>
+          <t>0_(2)bimestre</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,17 +611,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Elaine-Metalografia_(2)bimestre</t>
+          <t>Maria Celeste-Maq. Term. FLuxo</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>0_(2)bimestre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>Nilton-Mec. Tec. Res. Mat</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -633,27 +633,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>Vinicius-Des. Maq. Cad.</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Elaine-Metalografia_(2)bimestre</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Nilton-Mec. Tec. Res. Mat</t>
+          <t>0_(2)bimestre</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Vinicius-Des. Maq. Cad.</t>
         </is>
       </c>
     </row>
@@ -665,27 +665,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>Vinicius-Des. Maq. Cad.</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Elaine-Metalografia_(2)bimestre</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>0_(2)bimestre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>Vinicius-Des. Maq. Cad.</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>

--- a/data/turm/MEC-2B/MEC-2B_(2)bimestre.xlsx
+++ b/data/turm/MEC-2B/MEC-2B_(2)bimestre.xlsx
@@ -473,17 +473,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Carlos-Tornearia_(2)bimestre</t>
+          <t>Nilton-Mec. Tec. Res. Mat</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Maria Celeste-Maq. Term. FLuxo</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Vinicius-Des. Maq. Cad.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Nilton-Mec. Tec. Res. Mat</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -505,17 +505,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Carlos-Tornearia_(2)bimestre</t>
+          <t>Nilton-Mec. Tec. Res. Mat</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Maria Celeste-Maq. Term. FLuxo</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Vinicius-Des. Maq. Cad.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -525,7 +525,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Nilton-Mec. Tec. Res. Mat</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -537,27 +537,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Carlos-Tornearia_(2)bimestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Vinicius-Des. Maq. Cad.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Maria Celeste-Maq. Term. FLuxo</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0_(2)bimestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Victor-Ajustagem_(2)bimestre</t>
         </is>
       </c>
     </row>
@@ -601,27 +601,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0_(2)bimestre</t>
+          <t>Vinicius-Des. Maq. Cad.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Vinicius-Des. Maq. Cad.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Maria Celeste-Maq. Term. FLuxo</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0_(2)bimestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Nilton-Mec. Tec. Res. Mat</t>
+          <t>Victor-Ajustagem_(2)bimestre</t>
         </is>
       </c>
     </row>
@@ -633,27 +633,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Vinicius-Des. Maq. Cad.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Vinicius-Des. Maq. Cad.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Vinicius-Des. Maq. Cad.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0_(2)bimestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vinicius-Des. Maq. Cad.</t>
+          <t>Victor-Ajustagem_(2)bimestre</t>
         </is>
       </c>
     </row>
@@ -665,27 +665,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Nilton-Mec. Tec. Res. Mat</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Vinicius-Des. Maq. Cad.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Vinicius-Des. Maq. Cad.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0_(2)bimestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vinicius-Des. Maq. Cad.</t>
+          <t>Victor-Ajustagem_(2)bimestre</t>
         </is>
       </c>
     </row>

--- a/data/turm/MEC-2B/MEC-2B_(2)bimestre.xlsx
+++ b/data/turm/MEC-2B/MEC-2B_(2)bimestre.xlsx
@@ -473,19 +473,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nilton-Mec. Tec. Res. Mat</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Vinicius-Des. Maq. Cad.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>Maria Celeste-Maq. Term. FLuxo</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>-</t>
@@ -493,7 +493,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Vinicius-Des. Maq. Cad.</t>
         </is>
       </c>
     </row>
@@ -505,17 +505,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Vinicius-Des. Maq. Cad.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>Nilton-Mec. Tec. Res. Mat</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Maria Celeste-Maq. Term. FLuxo</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -547,17 +547,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Nilton-Mec. Tec. Res. Mat</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Carlos-Tornearia_(2)bimestre</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Victor-Ajustagem_(2)bimestre</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -601,27 +601,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Vinicius-Des. Maq. Cad.</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Vinicius-Des. Maq. Cad.</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Nilton-Mec. Tec. Res. Mat</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Carlos-Tornearia_(2)bimestre</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Victor-Ajustagem_(2)bimestre</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -633,27 +633,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>Vinicius-Des. Maq. Cad.</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Vinicius-Des. Maq. Cad.</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Carlos-Tornearia_(2)bimestre</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Victor-Ajustagem_(2)bimestre</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -665,27 +665,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Nilton-Mec. Tec. Res. Mat</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Vinicius-Des. Maq. Cad.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Maria Celeste-Maq. Term. FLuxo</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Carlos-Tornearia_(2)bimestre</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Victor-Ajustagem_(2)bimestre</t>
+          <t>-</t>
         </is>
       </c>
     </row>
